--- a/medium.xlsx
+++ b/medium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HDULAB601\Desktop\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596CF3F-21AD-4711-96CD-5D6D7CE1F2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211349C-8786-4B38-8B65-04372FECA3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>AB</t>
     </r>
@@ -897,13 +897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>149</v>
       </c>
@@ -3175,6 +3175,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F145" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
